--- a/outputs-HGR-r202/g__CAG-302.xlsx
+++ b/outputs-HGR-r202/g__CAG-302.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,50 +442,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__CAG-302 sp000431795</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__CAG-302 sp000431795</t>
+          <t>2-s__CAG-302 sp001916775</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__CAG-302 sp001916775</t>
+          <t>3-s__CAG-302 sp900543825</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__CAG-302 sp900543825</t>
+          <t>4-s__CAG-302 sp900548425</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5-s__CAG-302 sp900548425</t>
+          <t>5-s__CAG-302 sp900549325</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6-s__CAG-302 sp900549325</t>
+          <t>6-s__CAG-302 sp900554615</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>7-s__CAG-302 sp900554615</t>
+          <t>max</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -498,37 +493,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0008347659353664259</v>
+        <v>0.1611899801738951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6770347903120909</v>
+        <v>0.1813572219951828</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003383501859488327</v>
+        <v>0.07487826183634567</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00130925056934716</v>
+        <v>0.2535231433815903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04190678360881102</v>
+        <v>0.2385528648487391</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2589433564693456</v>
+        <v>0.09049852776424699</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01658755124555059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6770347903120909</v>
+        <v>0.2535231433815903</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s__CAG-302 sp000431795</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp000431795(reject)</t>
+          <t>s__CAG-302 sp900548425(reject)</t>
         </is>
       </c>
     </row>
@@ -539,37 +531,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03289450355005927</v>
+        <v>0.1139962509887434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07674284929116408</v>
+        <v>0.173247268659476</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3326513619982838</v>
+        <v>0.1321698633822251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1619583214684211</v>
+        <v>0.2404045800924609</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1911212235699041</v>
+        <v>0.2029014423495454</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1074855857843584</v>
+        <v>0.1372805945275495</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09714615433780935</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3326513619982838</v>
+        <v>0.2404045800924609</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>s__CAG-302 sp001916775</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp001916775(reject)</t>
+          <t>s__CAG-302 sp900548425(reject)</t>
         </is>
       </c>
     </row>
@@ -580,37 +569,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001567284409545646</v>
+        <v>0.1406549880259206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07084116550683955</v>
+        <v>0.167383086504569</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006163731722321849</v>
+        <v>0.1603029188403667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0670061158421956</v>
+        <v>0.24793570441445</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03939041458757259</v>
+        <v>0.2366066130913526</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8084368728422737</v>
+        <v>0.04711668912334093</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006594415089251111</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8084368728422737</v>
+        <v>0.24793570441445</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>s__CAG-302 sp900549325</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp900549325</t>
+          <t>s__CAG-302 sp900548425(reject)</t>
         </is>
       </c>
     </row>
@@ -621,37 +607,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02643197052254869</v>
+        <v>0.09191713533932824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0633425728982695</v>
+        <v>0.1223552648359551</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007345743064030066</v>
+        <v>0.09404869727182269</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2702690652819956</v>
+        <v>0.2148400837303248</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1323721011915268</v>
+        <v>0.1770309551474006</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1940536643658919</v>
+        <v>0.2998078636751687</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3061848826757374</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3061848826757374</v>
+        <v>0.2998078636751687</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900554615</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>s__CAG-302 sp900554615</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp900554615(reject)</t>
         </is>
       </c>
     </row>
@@ -662,37 +645,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001849889389568392</v>
+        <v>0.1523853248546641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07447926823277226</v>
+        <v>0.1919930591875042</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07466097389033972</v>
+        <v>0.1224470104818464</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006170982313092132</v>
+        <v>0.2480427296304696</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04905809782584655</v>
+        <v>0.2456721273582691</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7882545168839754</v>
+        <v>0.03945974848724668</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005526271464405621</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.7882545168839754</v>
+        <v>0.2480427296304696</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>s__CAG-302 sp900549325</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp900549325(reject)</t>
+          <t>s__CAG-302 sp900548425(reject)</t>
         </is>
       </c>
     </row>
@@ -703,37 +683,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001196616823203677</v>
+        <v>0.09232071768168215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00915062910492073</v>
+        <v>0.1199785605525079</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001438014647213119</v>
+        <v>0.2105182834944216</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9025777067540592</v>
+        <v>0.2488145173235715</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01799250936872987</v>
+        <v>0.1590105594529871</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001715103569314327</v>
+        <v>0.1693573614948297</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06592941973255895</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9025777067540592</v>
+        <v>0.2488145173235715</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>s__CAG-302 sp900543825</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp900543825</t>
+          <t>s__CAG-302 sp900548425(reject)</t>
         </is>
       </c>
     </row>
@@ -744,35 +721,32 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009435989701061459</v>
+        <v>0.1143703014621118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06664553933755851</v>
+        <v>0.1549062765836111</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1387637617178453</v>
+        <v>0.2193530773771389</v>
       </c>
       <c r="E8" t="n">
-        <v>0.702707289767399</v>
+        <v>0.2192709966295877</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04989012914752947</v>
+        <v>0.1881587441563863</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0146837291695956</v>
+        <v>0.1039406037911642</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01787356115901052</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.702707289767399</v>
+        <v>0.2193530773771389</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900543825</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp900543825</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>s__CAG-302 sp900543825(reject)</t>
         </is>
@@ -785,37 +759,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003658962950293256</v>
+        <v>0.1244748140201493</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0555098443365185</v>
+        <v>0.1541542056200406</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002547374872131998</v>
+        <v>0.1264909035680442</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0906719349823146</v>
+        <v>0.2638712463679874</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03473878781742949</v>
+        <v>0.2407554363022241</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8018746159141132</v>
+        <v>0.09025339412155456</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0109984791271989</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8018746159141132</v>
+        <v>0.2638712463679874</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>s__CAG-302 sp900549325</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp900549325</t>
+          <t>s__CAG-302 sp900548425(reject)</t>
         </is>
       </c>
     </row>
@@ -826,35 +797,32 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0124514032686661</v>
+        <v>0.1305975831931267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07239809444962075</v>
+        <v>0.1718043866175038</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0626922917972112</v>
+        <v>0.1049290928019251</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006190832716081019</v>
+        <v>0.2293777904962931</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06733472890671673</v>
+        <v>0.2375530463140348</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7609562072942047</v>
+        <v>0.1257381005771166</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01797644156749957</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.7609562072942047</v>
+        <v>0.2375530463140348</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900549325</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp900549325</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>s__CAG-302 sp900549325(reject)</t>
         </is>
@@ -867,37 +835,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002968921232486747</v>
+        <v>0.1297765661904491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02498828836727866</v>
+        <v>0.1517757352885735</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0002094583249521604</v>
+        <v>0.1092372931654193</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002825299097972845</v>
+        <v>0.2152069542531619</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0166693874029862</v>
+        <v>0.2500769409689805</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9415144032675891</v>
+        <v>0.1439265101334156</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01082424230673428</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9415144032675891</v>
+        <v>0.2500769409689805</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900549325</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>s__CAG-302 sp900549325</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp900549325</t>
+          <t>s__CAG-302 sp900549325(reject)</t>
         </is>
       </c>
     </row>
@@ -908,37 +873,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.008542563317347934</v>
+        <v>0.1384027843953268</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1481514444582885</v>
+        <v>0.1716906932721995</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08582725509998107</v>
+        <v>0.08668466988681864</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001989545853487006</v>
+        <v>0.2675992141512981</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07741335143594956</v>
+        <v>0.2367524698623277</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6582247111206774</v>
+        <v>0.09887016843202921</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01985112871426864</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.6582247111206774</v>
+        <v>0.2675992141512981</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>s__CAG-302 sp900549325</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp900549325(reject)</t>
+          <t>s__CAG-302 sp900548425(reject)</t>
         </is>
       </c>
     </row>
@@ -949,37 +911,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0167564902204381</v>
+        <v>0.1379284030150403</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04311528140656819</v>
+        <v>0.1902203349346958</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1813970483220111</v>
+        <v>0.09204162376541562</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001826746388389799</v>
+        <v>0.2667412815130802</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1167288663573118</v>
+        <v>0.2459243646727233</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6156667287219422</v>
+        <v>0.06714399209904454</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02450883858333888</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.6156667287219422</v>
+        <v>0.2667412815130802</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>s__CAG-302 sp900549325</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>s__CAG-302 sp900549325(reject)</t>
+          <t>s__CAG-302 sp900548425(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__CAG-302.xlsx
+++ b/outputs-HGR-r202/g__CAG-302.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>s__CAG-302 sp900548425</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>s__CAG-302 sp900548425</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>s__CAG-302 sp900548425</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -612,6 +632,11 @@
           <t>s__CAG-302 sp900554615</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900554615(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +670,11 @@
           <t>s__CAG-302 sp900548425</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -678,6 +708,11 @@
           <t>s__CAG-302 sp900548425</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +746,11 @@
           <t>s__CAG-302 sp900543825</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900543825</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +784,11 @@
           <t>s__CAG-302 sp900548425</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -777,6 +822,11 @@
           <t>s__CAG-302 sp900548425</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -810,6 +860,11 @@
           <t>s__CAG-302 sp900549325</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900549325</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -843,6 +898,11 @@
           <t>s__CAG-302 sp900549325</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900549325</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -876,6 +936,11 @@
           <t>s__CAG-302 sp900548425</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -905,6 +970,11 @@
         <v>0.2667412815130802</v>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>s__CAG-302 sp900548425</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>s__CAG-302 sp900548425</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-302.xlsx
+++ b/outputs-HGR-r202/g__CAG-302.xlsx
@@ -634,7 +634,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s__CAG-302 sp900554615</t>
+          <t>s__CAG-302 sp900554615(reject)</t>
         </is>
       </c>
     </row>
